--- a/src/test/resources/erillishaku.xlsx
+++ b/src/test/resources/erillishaku.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="511" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="511"/>
   </bookViews>
   <sheets>
-    <sheet name="Erillishaku" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Erillishaku" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -74,32 +79,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,7 +98,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -119,71 +106,358 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="E6" activeCellId="0" pane="topLeft" sqref="E6"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="33.5019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.91764705882353"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" spans="1:9" ht="14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -191,7 +465,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" spans="1:9" ht="14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -199,58 +473,58 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" ht="14">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" ht="14">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -260,12 +534,12 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/erillishaku.xlsx
+++ b/src/test/resources/erillishaku.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="511"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Erillishaku" sheetId="1" r:id="rId1"/>
+    <sheet name="Erillishaku" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Rakennusalan perustutkinto</t>
   </si>
@@ -37,6 +28,9 @@
     <t>Henkilötunnus</t>
   </si>
   <si>
+    <t>Sähköposti</t>
+  </si>
+  <si>
     <t>Syntymäaika</t>
   </si>
   <si>
@@ -62,6 +56,17 @@
   </si>
   <si>
     <t>010101-123N</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>tuomas.hakkarainen@example.com</t>
+    </r>
   </si>
   <si>
     <t>1.1.1901</t>
@@ -79,14 +84,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -105,133 +137,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Blank">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="499BC9"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="6EC038"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="F1D130"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFA93A"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF2D21"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="6C2085"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,7 +331,52 @@
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -287,7 +395,28 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -308,7 +437,34 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -317,7 +473,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -326,26 +482,63 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -399,147 +592,1075 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
+    <col min="11" max="256" width="8.125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" ht="14" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="14">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="14" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="14">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="14" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14">
-      <c r="A5" t="s">
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" ht="14" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="7">
         <v>10</v>
       </c>
+      <c r="J5" t="s" s="7">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="14">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" ht="14" customHeight="1">
+      <c r="A6" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E6" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" t="s" s="7">
         <v>17</v>
       </c>
+      <c r="H6" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/test/resources/erillishaku.xlsx
+++ b/src/test/resources/erillishaku.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Rakennusalan perustutkinto</t>
   </si>
@@ -34,7 +34,13 @@
     <t>Syntymäaika</t>
   </si>
   <si>
+    <t>Sukupuoli</t>
+  </si>
+  <si>
     <t>Hakija-oid</t>
+  </si>
+  <si>
+    <t>Äidinkieli</t>
   </si>
   <si>
     <t>Hakemuksentila</t>
@@ -70,6 +76,12 @@
   </si>
   <si>
     <t>1.1.1901</t>
+  </si>
+  <si>
+    <t>MIES</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
   <si>
     <t>HYVAKSYTTY</t>
@@ -1467,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1483,7 +1495,9 @@
     <col min="8" max="8" width="8.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
+    <col min="13" max="256" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
@@ -1497,6 +1511,8 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" ht="14" customHeight="1">
       <c r="A2" t="s" s="6">
@@ -1511,6 +1527,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" ht="14" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -1525,6 +1543,8 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" s="5"/>
@@ -1537,6 +1557,8 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" ht="14" customHeight="1">
       <c r="A5" t="s" s="7">
@@ -1569,35 +1591,47 @@
       <c r="J5" t="s" s="7">
         <v>11</v>
       </c>
+      <c r="K5" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" t="s" s="7">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" t="s" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s" s="7">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="K6" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s" s="7">
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
@@ -1611,6 +1645,8 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" s="5"/>
@@ -1623,6 +1659,8 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" s="5"/>
@@ -1635,6 +1673,8 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" s="5"/>
@@ -1647,6 +1687,8 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/test/resources/erillishaku.xlsx
+++ b/src/test/resources/erillishaku.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petur1/git/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38320" windowHeight="23540"/>
   </bookViews>
   <sheets>
-    <sheet name="Erillishaku" sheetId="1" r:id="rId4"/>
+    <sheet name="Erillishaku" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Rakennusalan perustutkinto</t>
   </si>
@@ -66,7 +82,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -92,15 +108,18 @@
   <si>
     <t>JULKAISTAVISSA</t>
   </si>
+  <si>
+    <t>Hyväksytty ehdollisesti</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -108,16 +127,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -127,7 +136,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -203,61 +212,107 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -449,7 +504,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -458,7 +513,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -467,7 +522,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -476,7 +531,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -485,7 +540,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -494,7 +549,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -606,8 +661,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -615,14 +670,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -641,7 +696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -649,7 +704,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -677,7 +732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +862,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +888,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,9 +953,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -916,7 +977,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -935,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -961,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1013,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1039,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1117,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1143,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1169,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,9 +1243,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1197,7 +1264,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1216,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1246,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1298,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1350,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1376,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1402,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,7 +1521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,228 +1534,239 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
-    <col min="13" max="256" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="257" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+    <row r="1" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="14" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" ht="14" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
-    <row r="5" ht="14" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s" s="7">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s" s="7">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s" s="7">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s" s="7">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s" s="7">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="7">
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s" s="7">
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" t="s" s="7">
+      <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s" s="7">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" t="s" s="7">
+      <c r="G6" s="2"/>
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s" s="7">
+      <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J6" t="s" s="7">
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s" s="7">
+      <c r="L6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L6" t="s" s="7">
+      <c r="M6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+    <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1697,10 +1775,10 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup scale="25" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/src/test/resources/erillishaku.xlsx
+++ b/src/test/resources/erillishaku.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petur1/git/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommi.helander/src/oph/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38320" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260"/>
   </bookViews>
   <sheets>
     <sheet name="Erillishaku" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Rakennusalan perustutkinto</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Ei</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto</t>
   </si>
 </sst>
 </file>
@@ -1553,18 +1556,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="257" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.125" style="1" customWidth="1"/>
+    <col min="15" max="258" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1578,8 +1586,9 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1595,8 +1604,9 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1612,8 +1622,9 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1627,8 +1638,9 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1660,16 +1672,19 @@
         <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1698,17 +1713,18 @@
       <c r="J6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1722,8 +1738,9 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1737,8 +1754,9 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1752,8 +1770,9 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1767,6 +1786,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/test/resources/erillishaku.xlsx
+++ b/src/test/resources/erillishaku.xlsx
@@ -1,33 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommi.helander/src/oph/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Erillishaku" sheetId="1" r:id="rId1"/>
+    <sheet name="Erillishaku" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Rakennusalan perustutkinto</t>
   </si>
@@ -60,6 +44,21 @@
   </si>
   <si>
     <t>Hakemuksentila</t>
+  </si>
+  <si>
+    <t>Hyväksytty ehdollisesti</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto FI</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto SV</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto EN</t>
   </si>
   <si>
     <t>Vastaanottotila</t>
@@ -82,9 +81,9 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>tuomas.hakkarainen@example.com</t>
@@ -103,26 +102,23 @@
     <t>HYVAKSYTTY</t>
   </si>
   <si>
+    <t>Ei</t>
+  </si>
+  <si>
     <t>KESKEN</t>
   </si>
   <si>
     <t>JULKAISTAVISSA</t>
-  </si>
-  <si>
-    <t>Hyväksytty ehdollisesti</t>
-  </si>
-  <si>
-    <t>Ei</t>
-  </si>
-  <si>
-    <t>Hyväksymisen ehto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -130,6 +126,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -139,18 +140,24 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -163,14 +170,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -178,144 +185,102 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="001FB714"/>
-      <rgbColor rgb="000000D4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -325,10 +290,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -367,53 +332,8 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -482,32 +402,11 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -516,7 +415,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -525,36 +424,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -609,110 +481,58 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -735,7 +555,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,7 +581,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -787,7 +607,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -813,7 +633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +659,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,7 +685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,31 +776,32 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -999,7 +820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,7 +846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +872,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1077,7 +898,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +924,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1207,7 +1028,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1246,15 +1067,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1266,27 +1081,28 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1368,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1394,7 +1210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1420,7 +1236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1446,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1472,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1537,268 +1353,307 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.125" style="1" customWidth="1"/>
-    <col min="15" max="258" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="1" customWidth="1"/>
+    <col min="18" max="256" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+    <row r="1" ht="14" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="14" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="14" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="14" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="14" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>13</v>
+      <c r="J6" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s" s="7">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>23</v>
-      </c>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="25" orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
